--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0364268758984615</v>
+        <v>0.2492544832245027</v>
       </c>
       <c r="E2">
-        <v>0.0364268758984615</v>
+        <v>0.2492544832245027</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.935708442204148E-16</v>
+        <v>2.712257442123737E-21</v>
       </c>
       <c r="E3">
-        <v>1.935708442204148E-16</v>
+        <v>2.712257442123737E-21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3.784844133469512E-05</v>
+        <v>0.000135036822210734</v>
       </c>
       <c r="E4">
-        <v>3.784844133469512E-05</v>
+        <v>0.000135036822210734</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0002387604431814466</v>
+        <v>0.16236598794312</v>
       </c>
       <c r="E5">
-        <v>0.0002387604431814466</v>
+        <v>0.16236598794312</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9985111589961423</v>
+        <v>0.9980256021924404</v>
       </c>
       <c r="E7">
-        <v>0.00148884100385771</v>
+        <v>0.001974397807559591</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999893612934239</v>
+        <v>0.9999999995418654</v>
       </c>
       <c r="E8">
-        <v>1.063870657613819E-05</v>
+        <v>4.581346413345955E-10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1917510478293957</v>
+        <v>0.1162655217639005</v>
       </c>
       <c r="E9">
-        <v>0.8082489521706042</v>
+        <v>0.8837344782360995</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9999999999999585</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="E10">
-        <v>4.152234112098085E-14</v>
+        <v>8.881784197001252E-16</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2411861495508971</v>
+        <v>0.0230164776105816</v>
       </c>
       <c r="E11">
-        <v>0.7588138504491029</v>
+        <v>0.9769835223894184</v>
       </c>
       <c r="F11">
-        <v>4.249770164489746</v>
+        <v>4.578420639038086</v>
       </c>
       <c r="G11">
         <v>0.7</v>
